--- a/data/data_v2.xlsx
+++ b/data/data_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gesisev-my.sharepoint.com/personal/leon_froehling_gesis_org/Documents/Microsoft Teams Chat Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gesisev-my.sharepoint.com/personal/felix_bergstein_gesis_org/Documents/ShinyGesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECE93FC-F140-4500-AA5D-6CE4944D41E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{90AF7E79-4508-4965-A205-E04DABF623D1}"/>
+    <workbookView xWindow="4170" yWindow="2535" windowWidth="23040" windowHeight="12360" xr2:uid="{90AF7E79-4508-4965-A205-E04DABF623D1}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1085,8 +1085,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1406,14 +1405,13 @@
   <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" customWidth="1"/>
+    <col min="8" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -1441,7 +1439,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>331</v>
       </c>
       <c r="J1" t="s">
@@ -1515,7 +1513,7 @@
       <c r="H2" t="s">
         <v>271</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
@@ -1592,7 +1590,7 @@
       <c r="H3" t="s">
         <v>272</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
@@ -1601,7 +1599,7 @@
       <c r="K3" t="s">
         <v>330</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
@@ -1666,7 +1664,7 @@
       <c r="H4" t="s">
         <v>273</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
@@ -1675,7 +1673,7 @@
       <c r="K4" t="s">
         <v>330</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
@@ -1743,7 +1741,7 @@
       <c r="H5" t="s">
         <v>274</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
@@ -1752,7 +1750,7 @@
       <c r="K5" t="s">
         <v>330</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
@@ -1820,7 +1818,7 @@
       <c r="H6" t="s">
         <v>275</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
@@ -1829,7 +1827,7 @@
       <c r="K6" t="s">
         <v>330</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
@@ -1894,7 +1892,7 @@
       <c r="H7" t="s">
         <v>276</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
@@ -1903,7 +1901,7 @@
       <c r="K7" t="s">
         <v>330</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
@@ -1965,7 +1963,7 @@
       <c r="H8" t="s">
         <v>277</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
@@ -1974,7 +1972,7 @@
       <c r="K8" t="s">
         <v>329</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
@@ -2036,7 +2034,7 @@
       <c r="H9" t="s">
         <v>278</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
@@ -2045,7 +2043,7 @@
       <c r="K9" t="s">
         <v>329</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
@@ -2110,7 +2108,7 @@
       <c r="H10" t="s">
         <v>279</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
@@ -2119,7 +2117,7 @@
       <c r="K10" t="s">
         <v>330</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
@@ -2187,7 +2185,7 @@
       <c r="H11" t="s">
         <v>280</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
@@ -2196,7 +2194,7 @@
       <c r="K11" t="s">
         <v>330</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
@@ -2258,7 +2256,7 @@
       <c r="H12" t="s">
         <v>281</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
@@ -2267,7 +2265,7 @@
       <c r="K12" t="s">
         <v>329</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
@@ -2335,7 +2333,7 @@
       <c r="H13" t="s">
         <v>282</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
@@ -2344,7 +2342,7 @@
       <c r="K13" t="s">
         <v>330</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
@@ -2409,7 +2407,7 @@
       <c r="H14" t="s">
         <v>283</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
@@ -2418,7 +2416,7 @@
       <c r="K14" t="s">
         <v>329</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
@@ -2486,7 +2484,7 @@
       <c r="H15" t="s">
         <v>284</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
@@ -2495,7 +2493,7 @@
       <c r="K15" t="s">
         <v>330</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
@@ -2563,7 +2561,7 @@
       <c r="H16" t="s">
         <v>285</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
@@ -2572,7 +2570,7 @@
       <c r="K16" t="s">
         <v>330</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
@@ -2637,7 +2635,7 @@
       <c r="H17" t="s">
         <v>286</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
@@ -2646,7 +2644,7 @@
       <c r="K17" t="s">
         <v>329</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
@@ -2711,7 +2709,7 @@
       <c r="H18" t="s">
         <v>287</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
@@ -2720,7 +2718,7 @@
       <c r="K18" t="s">
         <v>330</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
@@ -2782,7 +2780,7 @@
       <c r="H19" t="s">
         <v>288</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
@@ -2791,7 +2789,7 @@
       <c r="K19" t="s">
         <v>330</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
@@ -2859,7 +2857,7 @@
       <c r="H20" t="s">
         <v>289</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
@@ -2868,7 +2866,7 @@
       <c r="K20" t="s">
         <v>330</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
@@ -2933,7 +2931,7 @@
       <c r="H21" t="s">
         <v>290</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
@@ -2942,7 +2940,7 @@
       <c r="K21" t="s">
         <v>330</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
@@ -3007,7 +3005,7 @@
       <c r="H22" t="s">
         <v>291</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
@@ -3016,7 +3014,7 @@
       <c r="K22" t="s">
         <v>330</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
@@ -3081,7 +3079,7 @@
       <c r="H23" t="s">
         <v>292</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
@@ -3090,7 +3088,7 @@
       <c r="K23" t="s">
         <v>329</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
@@ -3152,7 +3150,7 @@
       <c r="H24" t="s">
         <v>293</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
@@ -3161,7 +3159,7 @@
       <c r="K24" t="s">
         <v>330</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
@@ -3223,7 +3221,7 @@
       <c r="H25" t="s">
         <v>294</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
@@ -3232,7 +3230,7 @@
       <c r="K25" t="s">
         <v>329</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
@@ -3297,7 +3295,7 @@
       <c r="H26" t="s">
         <v>295</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
@@ -3306,7 +3304,7 @@
       <c r="K26" t="s">
         <v>330</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
@@ -3371,7 +3369,7 @@
       <c r="H27" t="s">
         <v>296</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
@@ -3380,7 +3378,7 @@
       <c r="K27" t="s">
         <v>330</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
@@ -3448,7 +3446,7 @@
       <c r="H28" t="s">
         <v>297</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
@@ -3457,7 +3455,7 @@
       <c r="K28" t="s">
         <v>330</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
@@ -3522,7 +3520,7 @@
       <c r="H29" t="s">
         <v>298</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
@@ -3531,7 +3529,7 @@
       <c r="K29" t="s">
         <v>329</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
@@ -3599,7 +3597,7 @@
       <c r="H30" t="s">
         <v>299</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
@@ -3608,7 +3606,7 @@
       <c r="K30" t="s">
         <v>330</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
@@ -3673,7 +3671,7 @@
       <c r="H31" t="s">
         <v>300</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
@@ -3682,7 +3680,7 @@
       <c r="K31" t="s">
         <v>329</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
@@ -3747,7 +3745,7 @@
       <c r="H32" t="s">
         <v>301</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
@@ -3756,7 +3754,7 @@
       <c r="K32" t="s">
         <v>330</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
@@ -3824,7 +3822,7 @@
       <c r="H33" t="s">
         <v>302</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33">
         <v>1</v>
       </c>
       <c r="J33">
@@ -3833,7 +3831,7 @@
       <c r="K33" t="s">
         <v>330</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
@@ -3901,7 +3899,7 @@
       <c r="H34" t="s">
         <v>303</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
@@ -3910,7 +3908,7 @@
       <c r="K34" t="s">
         <v>330</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
@@ -3978,7 +3976,7 @@
       <c r="H35" t="s">
         <v>304</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
@@ -3987,7 +3985,7 @@
       <c r="K35" t="s">
         <v>330</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
@@ -4052,7 +4050,7 @@
       <c r="H36" t="s">
         <v>305</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
@@ -4061,7 +4059,7 @@
       <c r="K36" t="s">
         <v>329</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
@@ -4129,7 +4127,7 @@
       <c r="H37" t="s">
         <v>306</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
@@ -4138,7 +4136,7 @@
       <c r="K37" t="s">
         <v>330</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
@@ -4206,7 +4204,7 @@
       <c r="H38" t="s">
         <v>307</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
@@ -4215,7 +4213,7 @@
       <c r="K38" t="s">
         <v>330</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38">
         <v>1</v>
       </c>
       <c r="M38">
@@ -4283,7 +4281,7 @@
       <c r="H39" t="s">
         <v>308</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
@@ -4292,7 +4290,7 @@
       <c r="K39" t="s">
         <v>330</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39">
         <v>1</v>
       </c>
       <c r="M39">
@@ -4357,7 +4355,7 @@
       <c r="H40" t="s">
         <v>309</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
@@ -4366,7 +4364,7 @@
       <c r="K40" t="s">
         <v>329</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40">
         <v>0</v>
       </c>
       <c r="M40">
@@ -4431,7 +4429,7 @@
       <c r="H41" t="s">
         <v>310</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
@@ -4440,7 +4438,7 @@
       <c r="K41" t="s">
         <v>329</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
@@ -4508,7 +4506,7 @@
       <c r="H42" t="s">
         <v>311</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
@@ -4517,7 +4515,7 @@
       <c r="K42" t="s">
         <v>330</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42">
         <v>0</v>
       </c>
       <c r="M42">
@@ -4585,7 +4583,7 @@
       <c r="H43" t="s">
         <v>312</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
@@ -4594,7 +4592,7 @@
       <c r="K43" t="s">
         <v>330</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43">
         <v>0</v>
       </c>
       <c r="M43">
@@ -4662,7 +4660,7 @@
       <c r="H44" t="s">
         <v>313</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
@@ -4671,7 +4669,7 @@
       <c r="K44" t="s">
         <v>330</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44">
         <v>0</v>
       </c>
       <c r="M44">
@@ -4736,7 +4734,7 @@
       <c r="H45" t="s">
         <v>314</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
@@ -4745,7 +4743,7 @@
       <c r="K45" t="s">
         <v>329</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45">
         <v>0</v>
       </c>
       <c r="M45">
@@ -4813,7 +4811,7 @@
       <c r="H46" t="s">
         <v>315</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
@@ -4822,7 +4820,7 @@
       <c r="K46" t="s">
         <v>330</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L46">
         <v>0</v>
       </c>
       <c r="M46">
@@ -4887,7 +4885,7 @@
       <c r="H47" t="s">
         <v>316</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
@@ -4896,7 +4894,7 @@
       <c r="K47" t="s">
         <v>329</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47">
         <v>0</v>
       </c>
       <c r="M47">
@@ -4961,7 +4959,7 @@
       <c r="H48" t="s">
         <v>317</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48">
         <v>1</v>
       </c>
       <c r="J48">
@@ -4970,7 +4968,7 @@
       <c r="K48" t="s">
         <v>329</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48">
         <v>1</v>
       </c>
       <c r="M48">
@@ -5035,7 +5033,7 @@
       <c r="H49" t="s">
         <v>318</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49">
         <v>1</v>
       </c>
       <c r="J49">
@@ -5044,7 +5042,7 @@
       <c r="K49" t="s">
         <v>329</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L49">
         <v>1</v>
       </c>
       <c r="M49">
@@ -5109,7 +5107,7 @@
       <c r="H50" t="s">
         <v>319</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50">
         <v>1</v>
       </c>
       <c r="J50">
@@ -5118,7 +5116,7 @@
       <c r="K50" t="s">
         <v>329</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L50">
         <v>0</v>
       </c>
       <c r="M50">
@@ -5183,7 +5181,7 @@
       <c r="H51" t="s">
         <v>320</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51">
         <v>1</v>
       </c>
       <c r="J51">
@@ -5192,7 +5190,7 @@
       <c r="K51" t="s">
         <v>330</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L51">
         <v>1</v>
       </c>
       <c r="M51">
@@ -5260,7 +5258,7 @@
       <c r="H52" t="s">
         <v>321</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52">
         <v>1</v>
       </c>
       <c r="J52">
@@ -5269,7 +5267,7 @@
       <c r="K52" t="s">
         <v>330</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L52">
         <v>0</v>
       </c>
       <c r="M52">
@@ -5334,7 +5332,7 @@
       <c r="H53" t="s">
         <v>322</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
@@ -5343,7 +5341,7 @@
       <c r="K53" t="s">
         <v>329</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L53">
         <v>0</v>
       </c>
       <c r="M53">
@@ -5408,7 +5406,7 @@
       <c r="H54" t="s">
         <v>323</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
@@ -5417,7 +5415,7 @@
       <c r="K54" t="s">
         <v>329</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L54">
         <v>1</v>
       </c>
       <c r="M54">
@@ -5485,7 +5483,7 @@
       <c r="H55" t="s">
         <v>324</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55">
         <v>1</v>
       </c>
       <c r="J55">
@@ -5494,7 +5492,7 @@
       <c r="K55" t="s">
         <v>330</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L55">
         <v>0</v>
       </c>
       <c r="M55">
@@ -5562,7 +5560,7 @@
       <c r="H56" t="s">
         <v>325</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
@@ -5571,7 +5569,7 @@
       <c r="K56" t="s">
         <v>330</v>
       </c>
-      <c r="L56" s="1">
+      <c r="L56">
         <v>0</v>
       </c>
       <c r="M56">
@@ -5639,7 +5637,7 @@
       <c r="H57" t="s">
         <v>326</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57">
         <v>1</v>
       </c>
       <c r="J57">
@@ -5648,7 +5646,7 @@
       <c r="K57" t="s">
         <v>330</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L57">
         <v>1</v>
       </c>
       <c r="M57">
@@ -5713,7 +5711,7 @@
       <c r="H58" t="s">
         <v>327</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58">
         <v>1</v>
       </c>
       <c r="J58">
@@ -5722,7 +5720,7 @@
       <c r="K58" t="s">
         <v>329</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L58">
         <v>0</v>
       </c>
       <c r="M58">
@@ -5787,7 +5785,7 @@
       <c r="H59" t="s">
         <v>328</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59">
         <v>1</v>
       </c>
       <c r="J59">
@@ -5796,7 +5794,7 @@
       <c r="K59" t="s">
         <v>330</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L59">
         <v>0</v>
       </c>
       <c r="M59">
